--- a/Code/Results/Cases/Case_5_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.384976031034114</v>
+        <v>1.789941881127277</v>
       </c>
       <c r="C2">
-        <v>0.4646511614366204</v>
+        <v>0.1974320777327705</v>
       </c>
       <c r="D2">
-        <v>0.06629409262456676</v>
+        <v>0.1255301292643267</v>
       </c>
       <c r="E2">
-        <v>0.04254572650268784</v>
+        <v>0.1219734253763445</v>
       </c>
       <c r="F2">
-        <v>0.7580115656196469</v>
+        <v>1.673981462271875</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05010201167063677</v>
+        <v>0.1521136849593776</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3178434878148266</v>
+        <v>0.3248894851318624</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.923009256052183</v>
+        <v>4.323744603168876</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.946192801228676</v>
+        <v>1.658808757678344</v>
       </c>
       <c r="C3">
-        <v>0.4173407329456893</v>
+        <v>0.1815793962261125</v>
       </c>
       <c r="D3">
-        <v>0.06138340088679684</v>
+        <v>0.1245654263692373</v>
       </c>
       <c r="E3">
-        <v>0.04299911239666265</v>
+        <v>0.1228173204742218</v>
       </c>
       <c r="F3">
-        <v>0.7425044905221014</v>
+        <v>1.686348976963004</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05296618759058891</v>
+        <v>0.153905622380357</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2818734730605001</v>
+        <v>0.3155631487320676</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.898150999357114</v>
+        <v>4.363243441035081</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.677576599869724</v>
+        <v>1.5784718402669</v>
       </c>
       <c r="C4">
-        <v>0.3883190905240497</v>
+        <v>0.1718055225642559</v>
       </c>
       <c r="D4">
-        <v>0.05840703006967374</v>
+        <v>0.12400262839801</v>
       </c>
       <c r="E4">
-        <v>0.04333665052672142</v>
+        <v>0.1233783293661244</v>
       </c>
       <c r="F4">
-        <v>0.7349605574260636</v>
+        <v>1.694988679609118</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05482073472243432</v>
+        <v>0.1550683922273031</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2599486039980405</v>
+        <v>0.3099255058501171</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.888660121694784</v>
+        <v>4.390416221686934</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568267839340933</v>
+        <v>1.54578101507559</v>
       </c>
       <c r="C5">
-        <v>0.3764952879442944</v>
+        <v>0.1678127304095085</v>
       </c>
       <c r="D5">
-        <v>0.05720329252445566</v>
+        <v>0.1237807504400408</v>
       </c>
       <c r="E5">
-        <v>0.04348872699039052</v>
+        <v>0.1236177360320925</v>
       </c>
       <c r="F5">
-        <v>0.732359334577005</v>
+        <v>1.698772299926425</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05560008955031659</v>
+        <v>0.1555579589345322</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2510499988483872</v>
+        <v>0.3076506209181247</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.886171232448618</v>
+        <v>4.402222931448222</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550125242845752</v>
+        <v>1.540355634410162</v>
       </c>
       <c r="C6">
-        <v>0.3745320075634595</v>
+        <v>0.1671491427136971</v>
       </c>
       <c r="D6">
-        <v>0.05700394905976225</v>
+        <v>0.1237443599413339</v>
       </c>
       <c r="E6">
-        <v>0.0435148466827977</v>
+        <v>0.1236581415175309</v>
       </c>
       <c r="F6">
-        <v>0.7319552860079241</v>
+        <v>1.699416439484274</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05573091246323347</v>
+        <v>0.1556402013489588</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2495744380262153</v>
+        <v>0.3072742422884858</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.885839172416979</v>
+        <v>4.40422771079281</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.676101856932121</v>
+        <v>1.578030766879351</v>
       </c>
       <c r="C7">
-        <v>0.3881596246058905</v>
+        <v>0.1717517139391873</v>
       </c>
       <c r="D7">
-        <v>0.05839075973266716</v>
+        <v>0.1239996057872403</v>
       </c>
       <c r="E7">
-        <v>0.0433386431124454</v>
+        <v>0.1233815143758212</v>
       </c>
       <c r="F7">
-        <v>0.7349235924234705</v>
+        <v>1.69503864268745</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05483115042685238</v>
+        <v>0.155074930998798</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2598284544409495</v>
+        <v>0.309894734613394</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.888621066565065</v>
+        <v>4.390572481884249</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.233488903143041</v>
+        <v>1.744691120654011</v>
       </c>
       <c r="C8">
-        <v>0.4483303268744976</v>
+        <v>0.1919745830756199</v>
       </c>
       <c r="D8">
-        <v>0.06459245410066927</v>
+        <v>0.1251913936861229</v>
       </c>
       <c r="E8">
-        <v>0.04268956072238428</v>
+        <v>0.1222555151122862</v>
       </c>
       <c r="F8">
-        <v>0.7522392864679901</v>
+        <v>1.678028590717332</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05106935387159783</v>
+        <v>0.1527185760664613</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3054048341554534</v>
+        <v>0.3216554449721087</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.9131950825319</v>
+        <v>4.336757227981252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.335159449130003</v>
+        <v>2.072863257250276</v>
       </c>
       <c r="C9">
-        <v>0.5667459253794789</v>
+        <v>0.231302444153954</v>
       </c>
       <c r="D9">
-        <v>0.07709174921921402</v>
+        <v>0.1277612453176502</v>
       </c>
       <c r="E9">
-        <v>0.04190270974013721</v>
+        <v>0.1203867979884361</v>
       </c>
       <c r="F9">
-        <v>0.8030503110563245</v>
+        <v>1.652979266673341</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04447783056738519</v>
+        <v>0.1485933163016977</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3962782836802319</v>
+        <v>0.3454160042077206</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.010676156067888</v>
+        <v>4.254433096844707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.153353126579418</v>
+        <v>2.3147251309681</v>
       </c>
       <c r="C10">
-        <v>0.6543219556500048</v>
+        <v>0.2599859456014997</v>
       </c>
       <c r="D10">
-        <v>0.08652649595012463</v>
+        <v>0.1297893827025831</v>
       </c>
       <c r="E10">
-        <v>0.04164540260265071</v>
+        <v>0.1192198434256806</v>
       </c>
       <c r="F10">
-        <v>0.8523902593822612</v>
+        <v>1.639651993101168</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04014930593412114</v>
+        <v>0.1458638597768207</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4642949551045632</v>
+        <v>0.3632917006575695</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.117544090293677</v>
+        <v>4.208149352101543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.528344371366018</v>
+        <v>2.424905070806346</v>
       </c>
       <c r="C11">
-        <v>0.694366454456997</v>
+        <v>0.2729871722933979</v>
       </c>
       <c r="D11">
-        <v>0.09088432878210284</v>
+        <v>0.130742084007089</v>
       </c>
       <c r="E11">
-        <v>0.04160384946303353</v>
+        <v>0.1187335069483701</v>
       </c>
       <c r="F11">
-        <v>0.8778619799125664</v>
+        <v>1.63469407715516</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0383003327379452</v>
+        <v>0.1446874436800254</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4955918119964053</v>
+        <v>0.3715135116242863</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.175070239222663</v>
+        <v>4.19018838638442</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.67082238799577</v>
+        <v>2.466648134276284</v>
       </c>
       <c r="C12">
-        <v>0.7095669016920283</v>
+        <v>0.2779034177767414</v>
       </c>
       <c r="D12">
-        <v>0.09254499816635331</v>
+        <v>0.1311071385241576</v>
       </c>
       <c r="E12">
-        <v>0.04159949736327029</v>
+        <v>0.1185557308119876</v>
       </c>
       <c r="F12">
-        <v>0.8879806644265926</v>
+        <v>1.632975706415777</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03761822611340104</v>
+        <v>0.1442513359872928</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5075016525338754</v>
+        <v>0.3746397025579711</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.19824960814978</v>
+        <v>4.183832819342882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.640114709052341</v>
+        <v>2.457657148297869</v>
       </c>
       <c r="C13">
-        <v>0.7062914753467453</v>
+        <v>0.2768449336125798</v>
       </c>
       <c r="D13">
-        <v>0.09218686202600423</v>
+        <v>0.1310283274594966</v>
       </c>
       <c r="E13">
-        <v>0.04159991959114784</v>
+        <v>0.1185937341337748</v>
       </c>
       <c r="F13">
-        <v>0.8857797474184963</v>
+        <v>1.633338709386649</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03776431353821419</v>
+        <v>0.1443448426650997</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.504933935898606</v>
+        <v>0.3739658563562074</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.19319353542312</v>
+        <v>4.185181758982168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.540056107496355</v>
+        <v>2.428338902558892</v>
       </c>
       <c r="C14">
-        <v>0.6956162319465875</v>
+        <v>0.2733917773424821</v>
       </c>
       <c r="D14">
-        <v>0.09102073769332009</v>
+        <v>0.1307720315677727</v>
       </c>
       <c r="E14">
-        <v>0.04160326012147841</v>
+        <v>0.1187187532266876</v>
       </c>
       <c r="F14">
-        <v>0.8786847406972385</v>
+        <v>1.634549516179831</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03824384873207443</v>
+        <v>0.1446513769610593</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4965704276095551</v>
+        <v>0.3717704503488335</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.176948565798682</v>
+        <v>4.189656568711911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.478831798063482</v>
+        <v>2.4103832141152</v>
       </c>
       <c r="C15">
-        <v>0.6890823007729523</v>
+        <v>0.2712756949907202</v>
       </c>
       <c r="D15">
-        <v>0.09030784441521433</v>
+        <v>0.1306156000750107</v>
       </c>
       <c r="E15">
-        <v>0.0416068050136289</v>
+        <v>0.1187961626868059</v>
       </c>
       <c r="F15">
-        <v>0.8744016317843659</v>
+        <v>1.635311894483408</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03853995425350476</v>
+        <v>0.1448403589230969</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4914553682866227</v>
+        <v>0.3704273583799704</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.167183328668017</v>
+        <v>4.192455612306475</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.12890904470413</v>
+        <v>2.307527568170542</v>
       </c>
       <c r="C16">
-        <v>0.6517096674141101</v>
+        <v>0.2591353148926032</v>
       </c>
       <c r="D16">
-        <v>0.08624310915850941</v>
+        <v>0.1297277235305003</v>
       </c>
       <c r="E16">
-        <v>0.04164968155410165</v>
+        <v>0.1192525213793587</v>
       </c>
       <c r="F16">
-        <v>0.8507896947707252</v>
+        <v>1.639998253843132</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04027262342899629</v>
+        <v>0.145942053525677</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.462257395712399</v>
+        <v>0.3627561827602221</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.113973476048329</v>
+        <v>4.209385481660831</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.91500937030878</v>
+        <v>2.244467362745127</v>
       </c>
       <c r="C17">
-        <v>0.6288401621832804</v>
+        <v>0.2516753413961226</v>
       </c>
       <c r="D17">
-        <v>0.08376707652333693</v>
+        <v>0.1291907186768739</v>
       </c>
       <c r="E17">
-        <v>0.04169568444745408</v>
+        <v>0.119543875575129</v>
       </c>
       <c r="F17">
-        <v>0.8371057399734809</v>
+        <v>1.643156291771732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04136686198925954</v>
+        <v>0.1466346108370828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4444414626239279</v>
+        <v>0.3580731033043776</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.083691604858757</v>
+        <v>4.220564490935033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.792237717586318</v>
+        <v>2.208211584618141</v>
       </c>
       <c r="C18">
-        <v>0.6157051435633321</v>
+        <v>0.247380150174223</v>
       </c>
       <c r="D18">
-        <v>0.08234906968472444</v>
+        <v>0.1288846824022229</v>
       </c>
       <c r="E18">
-        <v>0.04172921652190276</v>
+        <v>0.1197156457013051</v>
       </c>
       <c r="F18">
-        <v>0.8295175408455293</v>
+        <v>1.64507668038506</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04200749214772692</v>
+        <v>0.1470390912267776</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4342272233919289</v>
+        <v>0.355388008171559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.067105699229018</v>
+        <v>4.227285500275428</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.750711419879451</v>
+        <v>2.195938604262096</v>
       </c>
       <c r="C19">
-        <v>0.6112609010589267</v>
+        <v>0.2459251228616779</v>
       </c>
       <c r="D19">
-        <v>0.08186998342011265</v>
+        <v>0.1287815518644706</v>
       </c>
       <c r="E19">
-        <v>0.04174176916947125</v>
+        <v>0.119774524289145</v>
       </c>
       <c r="F19">
-        <v>0.8269957138218018</v>
+        <v>1.645744740810684</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04222630815337958</v>
+        <v>0.1471770959702914</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4307743167802158</v>
+        <v>0.354480344541912</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.061629470886857</v>
+        <v>4.229611091921015</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.937752148945833</v>
+        <v>2.251178714350374</v>
       </c>
       <c r="C20">
-        <v>0.631272654440437</v>
+        <v>0.252469926896481</v>
       </c>
       <c r="D20">
-        <v>0.08403001199418014</v>
+        <v>0.1292475906675818</v>
       </c>
       <c r="E20">
-        <v>0.04169005169760176</v>
+        <v>0.1195124267725873</v>
       </c>
       <c r="F20">
-        <v>0.838532923335606</v>
+        <v>1.642809351227342</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04124920824727241</v>
+        <v>0.1465602515186157</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.446334531711102</v>
+        <v>0.3585707479236504</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.086828316030733</v>
+        <v>4.21934432738027</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.569432163673355</v>
+        <v>2.436949847284779</v>
       </c>
       <c r="C21">
-        <v>0.6987507621118993</v>
+        <v>0.2744062461774206</v>
       </c>
       <c r="D21">
-        <v>0.09136296482469675</v>
+        <v>0.1308471958462363</v>
       </c>
       <c r="E21">
-        <v>0.04160196559931251</v>
+        <v>0.118681858794524</v>
       </c>
       <c r="F21">
-        <v>0.8807555593006526</v>
+        <v>1.634189553571503</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03810250089052847</v>
+        <v>0.1445610859891797</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4990253469422044</v>
+        <v>0.3724149491905138</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.181681278875686</v>
+        <v>4.188330100251335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.985091676011109</v>
+        <v>2.558479460532965</v>
       </c>
       <c r="C22">
-        <v>0.7430678023963253</v>
+        <v>0.2887017587523246</v>
       </c>
       <c r="D22">
-        <v>0.09621691216398176</v>
+        <v>0.131917601140735</v>
       </c>
       <c r="E22">
-        <v>0.04161101918240639</v>
+        <v>0.1181762684098828</v>
       </c>
       <c r="F22">
-        <v>0.9111279252202849</v>
+        <v>1.629483387670319</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03615162211370482</v>
+        <v>0.1433091618543472</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5338060587641138</v>
+        <v>0.381537282501327</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.251866921634445</v>
+        <v>4.170659783744554</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.762961585739276</v>
+        <v>2.493606756557938</v>
       </c>
       <c r="C23">
-        <v>0.7193927424974333</v>
+        <v>0.2810758279868537</v>
       </c>
       <c r="D23">
-        <v>0.09362030384856723</v>
+        <v>0.1313440339587828</v>
       </c>
       <c r="E23">
-        <v>0.04159990673351643</v>
+        <v>0.1184427087523439</v>
       </c>
       <c r="F23">
-        <v>0.8946501519576202</v>
+        <v>1.631910228084507</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03718289591968826</v>
+        <v>0.1439723385098626</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5152088839052169</v>
+        <v>0.3766617784258841</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.213617601134104</v>
+        <v>4.179852605757702</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.927469514806091</v>
+        <v>2.248144517197261</v>
       </c>
       <c r="C24">
-        <v>0.6301728848219454</v>
+        <v>0.252110714560871</v>
       </c>
       <c r="D24">
-        <v>0.08391112181738691</v>
+        <v>0.1292218704438426</v>
       </c>
       <c r="E24">
-        <v>0.04169257623682121</v>
+        <v>0.1195266314849963</v>
       </c>
       <c r="F24">
-        <v>0.8378868278863365</v>
+        <v>1.642965876643601</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04130236362528006</v>
+        <v>0.1465938496794594</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4454785873258942</v>
+        <v>0.3583457401354622</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.085407652256407</v>
+        <v>4.219895047439024</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.035856269082672</v>
+        <v>1.983946642053411</v>
       </c>
       <c r="C25">
-        <v>0.534634968574494</v>
+        <v>0.2206995027467826</v>
       </c>
       <c r="D25">
-        <v>0.07366970250959781</v>
+        <v>0.1270413041533658</v>
       </c>
       <c r="E25">
-        <v>0.04206111004220681</v>
+        <v>0.1208560968123891</v>
       </c>
       <c r="F25">
-        <v>0.7873287017686295</v>
+        <v>1.658865163015719</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04617342188948292</v>
+        <v>0.1496563324308662</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3715008349145137</v>
+        <v>0.3389141243629723</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.978514172597727</v>
+        <v>4.274214066712233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.789941881127277</v>
+        <v>3.384976031034</v>
       </c>
       <c r="C2">
-        <v>0.1974320777327705</v>
+        <v>0.4646511614366204</v>
       </c>
       <c r="D2">
-        <v>0.1255301292643267</v>
+        <v>0.06629409262457386</v>
       </c>
       <c r="E2">
-        <v>0.1219734253763445</v>
+        <v>0.04254572650268962</v>
       </c>
       <c r="F2">
-        <v>1.673981462271875</v>
+        <v>0.7580115656196469</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1521136849593776</v>
+        <v>0.05010201167061634</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3248894851318624</v>
+        <v>0.3178434878147982</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.323744603168876</v>
+        <v>1.923009256052183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.658808757678344</v>
+        <v>2.946192801228676</v>
       </c>
       <c r="C3">
-        <v>0.1815793962261125</v>
+        <v>0.4173407329456325</v>
       </c>
       <c r="D3">
-        <v>0.1245654263692373</v>
+        <v>0.06138340088710237</v>
       </c>
       <c r="E3">
-        <v>0.1228173204742218</v>
+        <v>0.04299911239665022</v>
       </c>
       <c r="F3">
-        <v>1.686348976963004</v>
+        <v>0.7425044905220872</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.153905622380357</v>
+        <v>0.05296618759056226</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3155631487320676</v>
+        <v>0.2818734730606707</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.363243441035081</v>
+        <v>1.898150999357114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5784718402669</v>
+        <v>2.677576599869894</v>
       </c>
       <c r="C4">
-        <v>0.1718055225642559</v>
+        <v>0.3883190905240781</v>
       </c>
       <c r="D4">
-        <v>0.12400262839801</v>
+        <v>0.05840703006965953</v>
       </c>
       <c r="E4">
-        <v>0.1233783293661244</v>
+        <v>0.0433366505267454</v>
       </c>
       <c r="F4">
-        <v>1.694988679609118</v>
+        <v>0.7349605574260423</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1550683922273031</v>
+        <v>0.05482073472248272</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3099255058501171</v>
+        <v>0.2599486039980405</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.390416221686934</v>
+        <v>1.888660121694784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.54578101507559</v>
+        <v>2.568267839341217</v>
       </c>
       <c r="C5">
-        <v>0.1678127304095085</v>
+        <v>0.3764952879444934</v>
       </c>
       <c r="D5">
-        <v>0.1237807504400408</v>
+        <v>0.05720329252457645</v>
       </c>
       <c r="E5">
-        <v>0.1236177360320925</v>
+        <v>0.0434887269903923</v>
       </c>
       <c r="F5">
-        <v>1.698772299926425</v>
+        <v>0.7323593345770192</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1555579589345322</v>
+        <v>0.05560008955026596</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3076506209181247</v>
+        <v>0.251049998848444</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.402222931448222</v>
+        <v>1.886171232448646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.540355634410162</v>
+        <v>2.550125242845638</v>
       </c>
       <c r="C6">
-        <v>0.1671491427136971</v>
+        <v>0.3745320075634595</v>
       </c>
       <c r="D6">
-        <v>0.1237443599413339</v>
+        <v>0.05700394905964146</v>
       </c>
       <c r="E6">
-        <v>0.1236581415175309</v>
+        <v>0.04351484668279948</v>
       </c>
       <c r="F6">
-        <v>1.699416439484274</v>
+        <v>0.7319552860078886</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1556402013489588</v>
+        <v>0.05573091246312512</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3072742422884858</v>
+        <v>0.2495744380263005</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.40422771079281</v>
+        <v>1.885839172417036</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.578030766879351</v>
+        <v>2.676101856932178</v>
       </c>
       <c r="C7">
-        <v>0.1717517139391873</v>
+        <v>0.3881596246059189</v>
       </c>
       <c r="D7">
-        <v>0.1239996057872403</v>
+        <v>0.05839075973266006</v>
       </c>
       <c r="E7">
-        <v>0.1233815143758212</v>
+        <v>0.04333864311242763</v>
       </c>
       <c r="F7">
-        <v>1.69503864268745</v>
+        <v>0.7349235924234847</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.155074930998798</v>
+        <v>0.05483115042697717</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.309894734613394</v>
+        <v>0.259828454440779</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.390572481884249</v>
+        <v>1.888621066565037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.744691120654011</v>
+        <v>3.233488903143041</v>
       </c>
       <c r="C8">
-        <v>0.1919745830756199</v>
+        <v>0.4483303268744976</v>
       </c>
       <c r="D8">
-        <v>0.1251913936861229</v>
+        <v>0.06459245410053427</v>
       </c>
       <c r="E8">
-        <v>0.1222555151122862</v>
+        <v>0.04268956072237984</v>
       </c>
       <c r="F8">
-        <v>1.678028590717332</v>
+        <v>0.7522392864679972</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1527185760664613</v>
+        <v>0.05106935387163336</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3216554449721087</v>
+        <v>0.3054048341554392</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.336757227981252</v>
+        <v>1.913195082531843</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.072863257250276</v>
+        <v>4.335159449129776</v>
       </c>
       <c r="C9">
-        <v>0.231302444153954</v>
+        <v>0.5667459253797915</v>
       </c>
       <c r="D9">
-        <v>0.1277612453176502</v>
+        <v>0.07709174921897954</v>
       </c>
       <c r="E9">
-        <v>0.1203867979884361</v>
+        <v>0.04190270974013544</v>
       </c>
       <c r="F9">
-        <v>1.652979266673341</v>
+        <v>0.8030503110563032</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1485933163016977</v>
+        <v>0.04447783056743848</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3454160042077206</v>
+        <v>0.3962782836802887</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.254433096844707</v>
+        <v>2.010676156067859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.3147251309681</v>
+        <v>5.153353126579532</v>
       </c>
       <c r="C10">
-        <v>0.2599859456014997</v>
+        <v>0.6543219556498627</v>
       </c>
       <c r="D10">
-        <v>0.1297893827025831</v>
+        <v>0.08652649595001094</v>
       </c>
       <c r="E10">
-        <v>0.1192198434256806</v>
+        <v>0.04164540260267735</v>
       </c>
       <c r="F10">
-        <v>1.639651993101168</v>
+        <v>0.8523902593822612</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1458638597768207</v>
+        <v>0.04014930593421528</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3632917006575695</v>
+        <v>0.4642949551045916</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.208149352101543</v>
+        <v>2.117544090293649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.424905070806346</v>
+        <v>5.528344371366018</v>
       </c>
       <c r="C11">
-        <v>0.2729871722933979</v>
+        <v>0.6943664544571391</v>
       </c>
       <c r="D11">
-        <v>0.130742084007089</v>
+        <v>0.09088432878186836</v>
       </c>
       <c r="E11">
-        <v>0.1187335069483701</v>
+        <v>0.04160384946301754</v>
       </c>
       <c r="F11">
-        <v>1.63469407715516</v>
+        <v>0.8778619799125664</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1446874436800254</v>
+        <v>0.03830033273802069</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3715135116242863</v>
+        <v>0.4955918119964764</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.19018838638442</v>
+        <v>2.17507023922272</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.466648134276284</v>
+        <v>5.670822387995884</v>
       </c>
       <c r="C12">
-        <v>0.2779034177767414</v>
+        <v>0.7095669016919999</v>
       </c>
       <c r="D12">
-        <v>0.1311071385241576</v>
+        <v>0.09254499816641015</v>
       </c>
       <c r="E12">
-        <v>0.1185557308119876</v>
+        <v>0.04159949736326674</v>
       </c>
       <c r="F12">
-        <v>1.632975706415777</v>
+        <v>0.8879806644265784</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1442513359872928</v>
+        <v>0.03761822611335575</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3746397025579711</v>
+        <v>0.5075016525338896</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.183832819342882</v>
+        <v>2.198249608149808</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.457657148297869</v>
+        <v>5.640114709052568</v>
       </c>
       <c r="C13">
-        <v>0.2768449336125798</v>
+        <v>0.7062914753466316</v>
       </c>
       <c r="D13">
-        <v>0.1310283274594966</v>
+        <v>0.09218686202601134</v>
       </c>
       <c r="E13">
-        <v>0.1185937341337748</v>
+        <v>0.0415999195911656</v>
       </c>
       <c r="F13">
-        <v>1.633338709386649</v>
+        <v>0.8857797474184963</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1443448426650997</v>
+        <v>0.03776431353831811</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3739658563562074</v>
+        <v>0.5049339358986202</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.185181758982168</v>
+        <v>2.193193535423177</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.428338902558892</v>
+        <v>5.540056107496298</v>
       </c>
       <c r="C14">
-        <v>0.2733917773424821</v>
+        <v>0.6956162319465591</v>
       </c>
       <c r="D14">
-        <v>0.1307720315677727</v>
+        <v>0.09102073769343377</v>
       </c>
       <c r="E14">
-        <v>0.1187187532266876</v>
+        <v>0.0416032601214944</v>
       </c>
       <c r="F14">
-        <v>1.634549516179831</v>
+        <v>0.8786847406972527</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1446513769610593</v>
+        <v>0.03824384873210285</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3717704503488335</v>
+        <v>0.4965704276095266</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.189656568711911</v>
+        <v>2.17694856579871</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.4103832141152</v>
+        <v>5.478831798063425</v>
       </c>
       <c r="C15">
-        <v>0.2712756949907202</v>
+        <v>0.6890823007729807</v>
       </c>
       <c r="D15">
-        <v>0.1306156000750107</v>
+        <v>0.09030784441527828</v>
       </c>
       <c r="E15">
-        <v>0.1187961626868059</v>
+        <v>0.04160680501361469</v>
       </c>
       <c r="F15">
-        <v>1.635311894483408</v>
+        <v>0.8744016317843659</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1448403589230969</v>
+        <v>0.03853995425355183</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3704273583799704</v>
+        <v>0.4914553682866085</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.192455612306475</v>
+        <v>2.167183328667988</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.307527568170542</v>
+        <v>5.128909044704017</v>
       </c>
       <c r="C16">
-        <v>0.2591353148926032</v>
+        <v>0.6517096674138543</v>
       </c>
       <c r="D16">
-        <v>0.1297277235305003</v>
+        <v>0.0862431091586302</v>
       </c>
       <c r="E16">
-        <v>0.1192525213793587</v>
+        <v>0.04164968155412652</v>
       </c>
       <c r="F16">
-        <v>1.639998253843132</v>
+        <v>0.850789694770711</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.145942053525677</v>
+        <v>0.0402726234289652</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3627561827602221</v>
+        <v>0.4622573957124416</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.209385481660831</v>
+        <v>2.113973476048329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.244467362745127</v>
+        <v>4.915009370309008</v>
       </c>
       <c r="C17">
-        <v>0.2516753413961226</v>
+        <v>0.6288401621837352</v>
       </c>
       <c r="D17">
-        <v>0.1291907186768739</v>
+        <v>0.08376707652332982</v>
       </c>
       <c r="E17">
-        <v>0.119543875575129</v>
+        <v>0.04169568444746652</v>
       </c>
       <c r="F17">
-        <v>1.643156291771732</v>
+        <v>0.8371057399734667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1466346108370828</v>
+        <v>0.04136686198931994</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3580731033043776</v>
+        <v>0.4444414626239279</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.220564490935033</v>
+        <v>2.083691604858728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.208211584618141</v>
+        <v>4.792237717586204</v>
       </c>
       <c r="C18">
-        <v>0.247380150174223</v>
+        <v>0.6157051435628773</v>
       </c>
       <c r="D18">
-        <v>0.1288846824022229</v>
+        <v>0.08234906968473865</v>
       </c>
       <c r="E18">
-        <v>0.1197156457013051</v>
+        <v>0.04172921652190453</v>
       </c>
       <c r="F18">
-        <v>1.64507668038506</v>
+        <v>0.8295175408455151</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1470390912267776</v>
+        <v>0.04200749214768074</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.355388008171559</v>
+        <v>0.4342272233918862</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.227285500275428</v>
+        <v>2.067105699229018</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.195938604262096</v>
+        <v>4.750711419879508</v>
       </c>
       <c r="C19">
-        <v>0.2459251228616779</v>
+        <v>0.6112609010588415</v>
       </c>
       <c r="D19">
-        <v>0.1287815518644706</v>
+        <v>0.08186998342016949</v>
       </c>
       <c r="E19">
-        <v>0.119774524289145</v>
+        <v>0.04174176916948547</v>
       </c>
       <c r="F19">
-        <v>1.645744740810684</v>
+        <v>0.826995713821816</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1471770959702914</v>
+        <v>0.04222630815343908</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.354480344541912</v>
+        <v>0.4307743167803011</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.229611091921015</v>
+        <v>2.061629470886857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.251178714350374</v>
+        <v>4.937752148945719</v>
       </c>
       <c r="C20">
-        <v>0.252469926896481</v>
+        <v>0.6312726544407781</v>
       </c>
       <c r="D20">
-        <v>0.1292475906675818</v>
+        <v>0.0840300119941304</v>
       </c>
       <c r="E20">
-        <v>0.1195124267725873</v>
+        <v>0.04169005169758577</v>
       </c>
       <c r="F20">
-        <v>1.642809351227342</v>
+        <v>0.838532923335606</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1465602515186157</v>
+        <v>0.04124920824737099</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3585707479236504</v>
+        <v>0.4463345317110168</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.21934432738027</v>
+        <v>2.086828316030704</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.436949847284779</v>
+        <v>5.569432163673525</v>
       </c>
       <c r="C21">
-        <v>0.2744062461774206</v>
+        <v>0.698750762112013</v>
       </c>
       <c r="D21">
-        <v>0.1308471958462363</v>
+        <v>0.09136296482467543</v>
       </c>
       <c r="E21">
-        <v>0.118681858794524</v>
+        <v>0.04160196559932139</v>
       </c>
       <c r="F21">
-        <v>1.634189553571503</v>
+        <v>0.8807555593006526</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1445610859891797</v>
+        <v>0.0381025008905933</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3724149491905138</v>
+        <v>0.4990253469422896</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.188330100251335</v>
+        <v>2.181681278875658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.558479460532965</v>
+        <v>5.985091676011109</v>
       </c>
       <c r="C22">
-        <v>0.2887017587523246</v>
+        <v>0.7430678023962116</v>
       </c>
       <c r="D22">
-        <v>0.131917601140735</v>
+        <v>0.09621691216398176</v>
       </c>
       <c r="E22">
-        <v>0.1181762684098828</v>
+        <v>0.04161101918242238</v>
       </c>
       <c r="F22">
-        <v>1.629483387670319</v>
+        <v>0.9111279252202849</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1433091618543472</v>
+        <v>0.03615162211370126</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.381537282501327</v>
+        <v>0.5338060587641564</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.170659783744554</v>
+        <v>2.251866921634445</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.493606756557938</v>
+        <v>5.762961585739163</v>
       </c>
       <c r="C23">
-        <v>0.2810758279868537</v>
+        <v>0.7193927424974618</v>
       </c>
       <c r="D23">
-        <v>0.1313440339587828</v>
+        <v>0.09362030384880171</v>
       </c>
       <c r="E23">
-        <v>0.1184427087523439</v>
+        <v>0.04159990673349867</v>
       </c>
       <c r="F23">
-        <v>1.631910228084507</v>
+        <v>0.8946501519575918</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1439723385098626</v>
+        <v>0.03718289591963408</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3766617784258841</v>
+        <v>0.5152088839052738</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.179852605757702</v>
+        <v>2.213617601134075</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.248144517197261</v>
+        <v>4.927469514806148</v>
       </c>
       <c r="C24">
-        <v>0.252110714560871</v>
+        <v>0.6301728848217181</v>
       </c>
       <c r="D24">
-        <v>0.1292218704438426</v>
+        <v>0.08391112181743665</v>
       </c>
       <c r="E24">
-        <v>0.1195266314849963</v>
+        <v>0.04169257623685141</v>
       </c>
       <c r="F24">
-        <v>1.642965876643601</v>
+        <v>0.8378868278863507</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1465938496794594</v>
+        <v>0.04130236362528272</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3583457401354622</v>
+        <v>0.4454785873259226</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.219895047439024</v>
+        <v>2.085407652256436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.983946642053411</v>
+        <v>4.035856269082615</v>
       </c>
       <c r="C25">
-        <v>0.2206995027467826</v>
+        <v>0.5346349685746361</v>
       </c>
       <c r="D25">
-        <v>0.1270413041533658</v>
+        <v>0.07366970250959781</v>
       </c>
       <c r="E25">
-        <v>0.1208560968123891</v>
+        <v>0.04206111004222279</v>
       </c>
       <c r="F25">
-        <v>1.658865163015719</v>
+        <v>0.7873287017686366</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1496563324308662</v>
+        <v>0.0461734218895069</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3389141243629723</v>
+        <v>0.3715008349144711</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.274214066712233</v>
+        <v>1.978514172597755</v>
       </c>
     </row>
   </sheetData>
